--- a/src/test/data/all_data/bpbs_test_ok.xlsx
+++ b/src/test/data/all_data/bpbs_test_ok.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoko/DDBJ/test/data/biosample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoko/DDBJ/ddbj_validator/src/test/data/all_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C904DDB-12D8-BD41-9AD8-C518E73DA829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65503C96-6205-A145-948F-22E7A4161DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5600" yWindow="1580" windowWidth="27500" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="185">
   <si>
     <t># Submission</t>
   </si>
@@ -553,10 +553,6 @@
   </si>
   <si>
     <t>bio_material</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>oxy_stat_samp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1076,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1089,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1097,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1105,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1113,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1136,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1144,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1168,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1176,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1209,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1298,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DB2"/>
+  <dimension ref="A1:DA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="16"/>
@@ -1326,82 +1322,82 @@
     <col min="20" max="20" width="8.42578125" style="8" customWidth="1"/>
     <col min="21" max="21" width="42.85546875" style="8" customWidth="1"/>
     <col min="22" max="22" width="8.42578125" style="8" customWidth="1"/>
-    <col min="23" max="27" width="20" style="8" customWidth="1"/>
-    <col min="28" max="28" width="12" style="8" customWidth="1"/>
-    <col min="29" max="29" width="16.85546875" style="8" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" style="8" customWidth="1"/>
-    <col min="31" max="31" width="15.5703125" style="8" customWidth="1"/>
-    <col min="32" max="32" width="9.5703125" style="8" customWidth="1"/>
-    <col min="33" max="33" width="21.5703125" style="8" customWidth="1"/>
-    <col min="34" max="34" width="8.42578125" style="8" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="8" customWidth="1"/>
-    <col min="36" max="36" width="16.85546875" style="8" customWidth="1"/>
-    <col min="37" max="38" width="8.42578125" style="8" customWidth="1"/>
-    <col min="39" max="39" width="19.140625" style="8" customWidth="1"/>
-    <col min="40" max="40" width="22.85546875" style="8" customWidth="1"/>
-    <col min="41" max="41" width="9.5703125" style="8" customWidth="1"/>
-    <col min="42" max="42" width="13.140625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="16.85546875" style="8" customWidth="1"/>
-    <col min="44" max="44" width="20.42578125" style="8" customWidth="1"/>
-    <col min="45" max="45" width="15.5703125" style="8" customWidth="1"/>
-    <col min="46" max="46" width="18" style="8" customWidth="1"/>
-    <col min="47" max="47" width="15.5703125" style="8" customWidth="1"/>
-    <col min="48" max="48" width="16.85546875" style="8" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" style="8" customWidth="1"/>
-    <col min="50" max="51" width="16.85546875" style="8" customWidth="1"/>
-    <col min="52" max="52" width="22.85546875" style="8" customWidth="1"/>
-    <col min="53" max="53" width="18" style="8" customWidth="1"/>
-    <col min="54" max="54" width="14.42578125" style="8" customWidth="1"/>
-    <col min="55" max="55" width="12" style="8" customWidth="1"/>
-    <col min="56" max="56" width="19.140625" style="8" customWidth="1"/>
-    <col min="57" max="57" width="10.85546875" style="8" customWidth="1"/>
-    <col min="58" max="58" width="16.85546875" style="8" customWidth="1"/>
-    <col min="59" max="59" width="22.85546875" style="8" customWidth="1"/>
-    <col min="60" max="60" width="8.42578125" style="8" customWidth="1"/>
-    <col min="61" max="61" width="12" style="8" customWidth="1"/>
-    <col min="62" max="62" width="10.85546875" style="8" customWidth="1"/>
-    <col min="63" max="64" width="8.42578125" style="8" customWidth="1"/>
-    <col min="65" max="65" width="6" style="8" customWidth="1"/>
-    <col min="66" max="66" width="18" style="8" customWidth="1"/>
-    <col min="67" max="67" width="9.5703125" style="8" customWidth="1"/>
-    <col min="68" max="68" width="12" style="8" customWidth="1"/>
-    <col min="69" max="69" width="10.85546875" style="8" customWidth="1"/>
-    <col min="70" max="70" width="16.85546875" style="8" customWidth="1"/>
-    <col min="71" max="73" width="15.5703125" style="8" customWidth="1"/>
-    <col min="74" max="74" width="14.42578125" style="8" customWidth="1"/>
-    <col min="75" max="75" width="22.85546875" style="8" customWidth="1"/>
-    <col min="76" max="76" width="2.42578125" style="8" customWidth="1"/>
-    <col min="77" max="77" width="15.5703125" style="8" customWidth="1"/>
-    <col min="78" max="78" width="10.85546875" style="8" customWidth="1"/>
-    <col min="79" max="79" width="24" style="8" customWidth="1"/>
-    <col min="80" max="80" width="10.85546875" style="8" customWidth="1"/>
-    <col min="81" max="81" width="9.5703125" style="8" customWidth="1"/>
-    <col min="82" max="82" width="18" style="8" customWidth="1"/>
-    <col min="83" max="83" width="15.5703125" style="8" customWidth="1"/>
-    <col min="84" max="84" width="9.5703125" style="8" customWidth="1"/>
-    <col min="85" max="85" width="22.85546875" style="8" customWidth="1"/>
-    <col min="86" max="86" width="19.140625" style="8" customWidth="1"/>
-    <col min="87" max="87" width="10.85546875" style="8" customWidth="1"/>
-    <col min="88" max="89" width="16.85546875" style="8" customWidth="1"/>
-    <col min="90" max="90" width="18" style="8" customWidth="1"/>
-    <col min="91" max="91" width="22.85546875" style="8" customWidth="1"/>
-    <col min="92" max="92" width="9.5703125" style="8" customWidth="1"/>
-    <col min="93" max="93" width="7.140625" style="8" customWidth="1"/>
-    <col min="94" max="94" width="21.5703125" style="8" customWidth="1"/>
-    <col min="95" max="95" width="19.140625" style="8" customWidth="1"/>
-    <col min="96" max="97" width="8.42578125" style="8" customWidth="1"/>
-    <col min="98" max="98" width="4.85546875" style="8" customWidth="1"/>
-    <col min="99" max="99" width="9.5703125" style="8" customWidth="1"/>
-    <col min="100" max="100" width="10.85546875" style="8" customWidth="1"/>
-    <col min="101" max="101" width="14.42578125" style="8" customWidth="1"/>
-    <col min="102" max="102" width="15.5703125" style="8" customWidth="1"/>
-    <col min="103" max="103" width="10.85546875" style="8" customWidth="1"/>
-    <col min="104" max="104" width="15.5703125" style="8" customWidth="1"/>
-    <col min="105" max="106" width="13" style="8" customWidth="1"/>
-    <col min="107" max="16384" width="14.42578125" style="7"/>
+    <col min="23" max="26" width="20" style="8" customWidth="1"/>
+    <col min="27" max="27" width="12" style="8" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" style="8" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" style="8" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" style="8" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" style="8" customWidth="1"/>
+    <col min="32" max="32" width="21.5703125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="8.42578125" style="8" customWidth="1"/>
+    <col min="34" max="34" width="22.85546875" style="8" customWidth="1"/>
+    <col min="35" max="35" width="16.85546875" style="8" customWidth="1"/>
+    <col min="36" max="37" width="8.42578125" style="8" customWidth="1"/>
+    <col min="38" max="38" width="19.140625" style="8" customWidth="1"/>
+    <col min="39" max="39" width="22.85546875" style="8" customWidth="1"/>
+    <col min="40" max="40" width="9.5703125" style="8" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" style="8" customWidth="1"/>
+    <col min="42" max="42" width="16.85546875" style="8" customWidth="1"/>
+    <col min="43" max="43" width="20.42578125" style="8" customWidth="1"/>
+    <col min="44" max="44" width="15.5703125" style="8" customWidth="1"/>
+    <col min="45" max="45" width="18" style="8" customWidth="1"/>
+    <col min="46" max="46" width="15.5703125" style="8" customWidth="1"/>
+    <col min="47" max="47" width="16.85546875" style="8" customWidth="1"/>
+    <col min="48" max="48" width="13.140625" style="8" customWidth="1"/>
+    <col min="49" max="50" width="16.85546875" style="8" customWidth="1"/>
+    <col min="51" max="51" width="22.85546875" style="8" customWidth="1"/>
+    <col min="52" max="52" width="18" style="8" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" style="8" customWidth="1"/>
+    <col min="54" max="54" width="12" style="8" customWidth="1"/>
+    <col min="55" max="55" width="19.140625" style="8" customWidth="1"/>
+    <col min="56" max="56" width="10.85546875" style="8" customWidth="1"/>
+    <col min="57" max="57" width="16.85546875" style="8" customWidth="1"/>
+    <col min="58" max="58" width="22.85546875" style="8" customWidth="1"/>
+    <col min="59" max="59" width="8.42578125" style="8" customWidth="1"/>
+    <col min="60" max="60" width="12" style="8" customWidth="1"/>
+    <col min="61" max="61" width="10.85546875" style="8" customWidth="1"/>
+    <col min="62" max="63" width="8.42578125" style="8" customWidth="1"/>
+    <col min="64" max="64" width="6" style="8" customWidth="1"/>
+    <col min="65" max="65" width="18" style="8" customWidth="1"/>
+    <col min="66" max="66" width="9.5703125" style="8" customWidth="1"/>
+    <col min="67" max="67" width="12" style="8" customWidth="1"/>
+    <col min="68" max="68" width="10.85546875" style="8" customWidth="1"/>
+    <col min="69" max="69" width="16.85546875" style="8" customWidth="1"/>
+    <col min="70" max="72" width="15.5703125" style="8" customWidth="1"/>
+    <col min="73" max="73" width="14.42578125" style="8" customWidth="1"/>
+    <col min="74" max="74" width="22.85546875" style="8" customWidth="1"/>
+    <col min="75" max="75" width="2.42578125" style="8" customWidth="1"/>
+    <col min="76" max="76" width="15.5703125" style="8" customWidth="1"/>
+    <col min="77" max="77" width="10.85546875" style="8" customWidth="1"/>
+    <col min="78" max="78" width="24" style="8" customWidth="1"/>
+    <col min="79" max="79" width="10.85546875" style="8" customWidth="1"/>
+    <col min="80" max="80" width="9.5703125" style="8" customWidth="1"/>
+    <col min="81" max="81" width="18" style="8" customWidth="1"/>
+    <col min="82" max="82" width="15.5703125" style="8" customWidth="1"/>
+    <col min="83" max="83" width="9.5703125" style="8" customWidth="1"/>
+    <col min="84" max="84" width="22.85546875" style="8" customWidth="1"/>
+    <col min="85" max="85" width="19.140625" style="8" customWidth="1"/>
+    <col min="86" max="86" width="10.85546875" style="8" customWidth="1"/>
+    <col min="87" max="88" width="16.85546875" style="8" customWidth="1"/>
+    <col min="89" max="89" width="18" style="8" customWidth="1"/>
+    <col min="90" max="90" width="22.85546875" style="8" customWidth="1"/>
+    <col min="91" max="91" width="9.5703125" style="8" customWidth="1"/>
+    <col min="92" max="92" width="7.140625" style="8" customWidth="1"/>
+    <col min="93" max="93" width="21.5703125" style="8" customWidth="1"/>
+    <col min="94" max="94" width="19.140625" style="8" customWidth="1"/>
+    <col min="95" max="96" width="8.42578125" style="8" customWidth="1"/>
+    <col min="97" max="97" width="4.85546875" style="8" customWidth="1"/>
+    <col min="98" max="98" width="9.5703125" style="8" customWidth="1"/>
+    <col min="99" max="99" width="10.85546875" style="8" customWidth="1"/>
+    <col min="100" max="100" width="14.42578125" style="8" customWidth="1"/>
+    <col min="101" max="101" width="15.5703125" style="8" customWidth="1"/>
+    <col min="102" max="102" width="10.85546875" style="8" customWidth="1"/>
+    <col min="103" max="103" width="15.5703125" style="8" customWidth="1"/>
+    <col min="104" max="105" width="13" style="8" customWidth="1"/>
+    <col min="106" max="16384" width="14.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106">
+    <row r="1" spans="1:105">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
@@ -1481,243 +1477,240 @@
         <v>168</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH1" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AJ1" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL1" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM1" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO1" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AR1" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS1" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AT1" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AU1" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AV1" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AW1" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AX1" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AY1" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AZ1" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BA1" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB1" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BC1" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BD1" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BE1" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BF1" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BG1" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BH1" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BI1" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BJ1" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BK1" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BL1" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BM1" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BN1" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BO1" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BP1" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BQ1" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BR1" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BS1" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BT1" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BU1" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BV1" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BW1" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BX1" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BY1" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BZ1" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CA1" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CB1" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CC1" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="CD1" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="CE1" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CF1" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="CG1" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="CH1" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CI1" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="CJ1" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="CK1" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="CL1" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="CM1" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="CN1" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="CO1" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CP1" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="CQ1" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="CR1" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS1" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CT1" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="CU1" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CV1" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="CW1" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CX1" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="CY1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="CZ1" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="CZ1" s="10"/>
       <c r="DA1" s="10"/>
-      <c r="DB1" s="10"/>
-    </row>
-    <row r="2" spans="1:106">
+    </row>
+    <row r="2" spans="1:105">
       <c r="A2" s="11" t="s">
         <v>127</v>
       </c>
@@ -1728,13 +1721,13 @@
         <v>155</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>157</v>
@@ -1752,19 +1745,19 @@
         <v>159</v>
       </c>
       <c r="O2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>163</v>

--- a/src/test/data/all_data/bpbs_test_ok.xlsx
+++ b/src/test/data/all_data/bpbs_test_ok.xlsx
@@ -8,33 +8,1493 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoko/DDBJ/ddbj_validator/src/test/data/all_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65503C96-6205-A145-948F-22E7A4161DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7CF846-5BF0-CD44-AD00-460B87258EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="1580" windowWidth="27500" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7580" yWindow="2960" windowWidth="27500" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BioProject" sheetId="1" r:id="rId1"/>
     <sheet name="BioSample" sheetId="2" r:id="rId2"/>
     <sheet name="CV" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DDBJ</author>
+  </authors>
+  <commentList>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">The sample name is a name that you choose for the sample.  Each sample name must be &lt;span class="attention_text"&gt;unique&lt;/span&gt; in a submission. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Sample title should be short and informative. Each sample title must be &lt;span class="attention_text"&gt;unique&lt;/span&gt; in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>A brief description for the sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the &lt;a href="http://www.ncbi.nlm.nih.gov/taxonomy"&gt;NCBI Taxonomy database&lt;/a&gt;. If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, &lt;a href="http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"&gt;some metagenomes and environmental samples&lt;/a&gt;.  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Associated BioProject accession number (PRJDB)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>A locus tag prefix for an annotated genome
+&lt;a href="http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html"&gt;/locus tag qualifier&lt;/a&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The elevation of the sampling site as measured by the vertical distance from mean sea level.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. &lt;a href="http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material"&gt;FAQ: What is the difference between biome, feature and material?&lt;/a&gt; EnvO (v 2013-06-14) terms can be found via the link: &lt;a href="http://www.environmentontology.org/Browse-EnvO"&gt;www.environmentontology.org/Browse-EnvO&lt;/a&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. &lt;a href="http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material"&gt;FAQ: What is the difference between biome, feature and material?&lt;/a&gt; EnvO (v 2013-06-14) terms can be found via the link: &lt;a href="http://www.environmentontology.org/Browse-EnvO"&gt;www.environmentontology.org/Browse-EnvO&lt;/a&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. &lt;a href="http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material"&gt;FAQ: What is the difference between biome, feature and material?&lt;/a&gt; EnvO (v 2013-06-14) terms can be found via the link: &lt;a href="http://www.environmentontology.org/Browse-EnvO"&gt;www.environmentontology.org/Browse-EnvO&lt;/a&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from &lt;a href="http://www.ddbj.nig.ac.jp/sub/country-e.html"&gt;this list&lt;/a&gt;. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, “47.94 N 28.12 W” “45.0123 S 4.1234 E”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. Always applied to the haploid chromosome count of a eukaryote</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Primary publication if isolated before genome publication; otherwise, primary genome report in the form of pubmed ID, DOI or URL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microbial/eukaryotic strain name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of alkyl diethers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The altitude of the sample is the vertical distance between Earth's surface above Sea Level and the sampled position in the air.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>measurement of aminopeptidase activity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of ammonium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>measurement of bacterial carbon production</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of bishomohopanol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of bromide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of calcium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ratio of amount or concentrations of carbon to nitrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see &lt;a href="http://bioportal.bioontology.org/visualize/44603"&gt;this list&lt;/a&gt;.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of chloride</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of chlorophyll</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of diether lipids; can include multiple types of diether lipids</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of dissolved carbon dioxide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of dissolved hydrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>dissolved inorganic carbon concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of dissolved organic carbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>dissolved organic nitrogen concentration measured as; total dissolved nitrogen - NH&lt;span class="sub"&gt;4&lt;/span&gt; - NO&lt;span class="sub"&gt;3&lt;/span&gt; - NO&lt;span class="sub"&gt;2&lt;/span&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of dissolved oxygen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Estimated size of genome</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Plasmids that have significance phenotypic consequence</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>measurement of glucosidase activity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Health or disease status of sample at time of collection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000030000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>NCBI taxon id of the host, e.g. 9606</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of magnesium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000033000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>measurement of mean friction velocity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000034000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>measurement of mean peak friction velocity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000035000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>methane (gas) amount or concentration at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000036000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000037000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of n-alkanes; can include multiple n-alkanes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000038000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of nitrate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000039000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of nitrite</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of nitrogen (total)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">A unique identifier of the omics-enabled observatory (or comparable time series) your data derives from. This identifier should be provided by the OMICON ontology; if you require a new identifier for your time series, contact the ontology's developers. Information is available here: https://github.com/GLOMICON/omicon. This field is only applicable to records which derive from an omics time-series or observatory. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of organic carbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of organic matter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of organic nitrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000040000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>oxygenation status of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000041000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of particulate organic carbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000042000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>To what is the entity pathogenic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000043000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000044000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of petroleum hydrocarbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000045000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>pH measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000046000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of phaeopigments; can include multiple phaeopigments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000047000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of phosphate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BU14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000048000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of phospholipid fatty acids; can include multiple values</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BV14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000049000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of potassium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BW14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>pressure to which the sample is subject, in atmospheres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BX14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BY14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BZ14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>salinity measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CA14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CB14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000050000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CD14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000051000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>duration for which sample was stored</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CE14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000052000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>location at which sample was stored, usually name of a specific freezer/room</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CF14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000053000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>temperature at which sample was stored, e.g. -80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CG14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000054000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>weight (g) of soil processed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CH14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000055000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of silicate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CI14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000056000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>sodium concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CJ14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000057000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CK14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000058000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CL14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000059000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of sulfate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CM14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>concentration of sulfide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CN14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>temperature of the sample at time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CO14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>total carbon content</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CP14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>total nitrogen concentration, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. Can also be measured without filtering, reported as nitrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CQ14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Definition for soil: total organic C content of the soil units of g C/kg soil. Definition otherwise: total organic carbon content</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CR14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Feeding position in food chain (eg., chemolithotroph)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CS14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000060000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>turbidity measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CT14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000061000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>water content measurement</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="192">
+  <si>
+    <t># ORANGE fields are mandatory. Your submission will fail if any mandatory fields are not completed.</t>
+  </si>
+  <si>
+    <t># BLUE fields are optional. Leave optional fields empty if no information is available.</t>
+  </si>
   <si>
     <t># Submission</t>
   </si>
@@ -132,7 +1592,37 @@
     <t>private_comment_to_ddbj</t>
   </si>
   <si>
-    <t>_package</t>
+    <t># Package: MIGS.ba.microbial, set version 1.4.0</t>
+  </si>
+  <si>
+    <t># This is a submission template for batch deposit of 'MIGS: cultured bacteria/archaea, microbial mat/biofilm; version 5.0' samples to the DDBJ BioSample database (https://www.ddbj.nig.ac.jp/biosample).</t>
+  </si>
+  <si>
+    <t># ORANGE fields are mandatory. Your submission will fail if any mandatory fields are not completed. If information is unavailable for any mandatory field, please enter 'not collected',  'not applicable' or 'missing' as appropriate.</t>
+  </si>
+  <si>
+    <t># GREEN fields indicate that at least one of those fields is mandatory. If information is unavailable, please enter 'not collected',  'not applicable' or 'missing' as appropriate.</t>
+  </si>
+  <si>
+    <t># You can add any number of custom fields to fully describe your BioSamples, simply add them to the right of the last attribute.</t>
+  </si>
+  <si>
+    <t># Hover over field name to view definition, or see https://www.ddbj.nig.ac.jp/biosample/attribute-e.html</t>
+  </si>
+  <si>
+    <t># CAUTION: Be aware that Excel may automatically apply formatting to your data. In particular, take care with dates, incrementing autofills and special characters like / or -. Doublecheck that your text file is accurate before uploading to BioSample.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># TO MAKE A SUBMISSION: </t>
+  </si>
+  <si>
+    <t>#    1. Complete this template table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#    2. Upload the file on the 'ATTRIBUTES' tab of the BioSample Submission Portal at https://ddbj.nig.ac.jp/D-way </t>
+  </si>
+  <si>
+    <t># If you have any questions, please contact us at https://www.ddbj.nig.ac.jp/contact-ddbj-e.html</t>
   </si>
   <si>
     <t>*sample_name</t>
@@ -267,6 +1757,9 @@
     <t>health_state</t>
   </si>
   <si>
+    <t>host</t>
+  </si>
+  <si>
     <t>host_taxid</t>
   </si>
   <si>
@@ -417,9 +1910,6 @@
     <t>water_content</t>
   </si>
   <si>
-    <t>MIGS.ba.microbial</t>
-  </si>
-  <si>
     <t>Genome sequencing and assembly</t>
   </si>
   <si>
@@ -499,13 +1989,25 @@
   </si>
   <si>
     <t>Variation</t>
+  </si>
+  <si>
+    <t>MTB313</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>MIGS Cultured Bacterial/Archaeal sample from Streptococcus pyogenes</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MTB313</t>
+    <t>Streptococcus pyogenes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1314</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2011-12-01</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -513,46 +2015,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>missing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>urban biome</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>interstitial fluid</t>
-  </si>
-  <si>
     <t>town</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>interstitial fluid</t>
+  </si>
+  <si>
+    <t>Japan:Hikone-shi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>35.2622 N 136.2253 E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16088826</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Streptococcus pyogenes MTB313 genome sequencing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>project_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Streptococcus pyogenes MTB313 genome sequencing</t>
+    <t>My Project</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>missing</t>
+    <t>MIGS Cultured Bacterial/Archaeal sample from Streptococcus pyogenes. Add comment to over 100 characters.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>host</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>component_organism</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>culture_collection</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>specimen_voucher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bio_material</t>
+    <t>12345</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -573,50 +2087,6 @@
   </si>
   <si>
     <t>https://www.ddbj.nig.ac.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>My Project</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12345</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MIGS Cultured Bacterial/Archaeal sample from Streptococcus pyogenes. Add comment to over 100 characters.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Streptococcus pyogenes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1314</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Japan:Hikone-shi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>16088826</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2011-12-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>35.2622 N 136.2253 E</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -624,7 +2094,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -654,12 +2124,45 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -674,12 +2177,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCA80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFE4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCA80"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFE4FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77D9A8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -691,15 +2221,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -721,22 +2252,51 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1048,221 +2608,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="34.7109375" style="6" customWidth="1"/>
     <col min="2" max="4" width="21.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="5"/>
+    <col min="5" max="6" width="10.7109375" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{5120C490-3C91-DF4E-A24E-93473A7A3D63}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{FE6F33CC-70F4-974C-9AA9-6C416E229A5E}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{69E8BD49-C73C-334B-BE36-A9841B007B4B}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{CE1CF027-9567-534C-A3C4-F87E242B6142}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1272,19 +2847,19 @@
           <x14:formula1>
             <xm:f>CV!$A$2:$A$21</xm:f>
           </x14:formula1>
-          <xm:sqref>B14:F14</xm:sqref>
+          <xm:sqref>B17:F17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>CV!$B$2:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B15</xm:sqref>
+          <xm:sqref>B18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>CV!$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B32</xm:sqref>
+          <xm:sqref>B35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1293,482 +2868,562 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:CW15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="19.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="6" style="8" customWidth="1"/>
-    <col min="12" max="13" width="19.140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="42.85546875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" style="8" customWidth="1"/>
-    <col min="23" max="26" width="20" style="8" customWidth="1"/>
-    <col min="27" max="27" width="12" style="8" customWidth="1"/>
-    <col min="28" max="28" width="16.85546875" style="8" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" style="8" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" style="8" customWidth="1"/>
-    <col min="31" max="31" width="9.5703125" style="8" customWidth="1"/>
-    <col min="32" max="32" width="21.5703125" style="8" customWidth="1"/>
-    <col min="33" max="33" width="8.42578125" style="8" customWidth="1"/>
-    <col min="34" max="34" width="22.85546875" style="8" customWidth="1"/>
-    <col min="35" max="35" width="16.85546875" style="8" customWidth="1"/>
-    <col min="36" max="37" width="8.42578125" style="8" customWidth="1"/>
-    <col min="38" max="38" width="19.140625" style="8" customWidth="1"/>
-    <col min="39" max="39" width="22.85546875" style="8" customWidth="1"/>
-    <col min="40" max="40" width="9.5703125" style="8" customWidth="1"/>
-    <col min="41" max="41" width="13.140625" style="8" customWidth="1"/>
-    <col min="42" max="42" width="16.85546875" style="8" customWidth="1"/>
-    <col min="43" max="43" width="20.42578125" style="8" customWidth="1"/>
-    <col min="44" max="44" width="15.5703125" style="8" customWidth="1"/>
-    <col min="45" max="45" width="18" style="8" customWidth="1"/>
-    <col min="46" max="46" width="15.5703125" style="8" customWidth="1"/>
-    <col min="47" max="47" width="16.85546875" style="8" customWidth="1"/>
-    <col min="48" max="48" width="13.140625" style="8" customWidth="1"/>
-    <col min="49" max="50" width="16.85546875" style="8" customWidth="1"/>
-    <col min="51" max="51" width="22.85546875" style="8" customWidth="1"/>
-    <col min="52" max="52" width="18" style="8" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" style="8" customWidth="1"/>
-    <col min="54" max="54" width="12" style="8" customWidth="1"/>
-    <col min="55" max="55" width="19.140625" style="8" customWidth="1"/>
-    <col min="56" max="56" width="10.85546875" style="8" customWidth="1"/>
-    <col min="57" max="57" width="16.85546875" style="8" customWidth="1"/>
-    <col min="58" max="58" width="22.85546875" style="8" customWidth="1"/>
-    <col min="59" max="59" width="8.42578125" style="8" customWidth="1"/>
-    <col min="60" max="60" width="12" style="8" customWidth="1"/>
-    <col min="61" max="61" width="10.85546875" style="8" customWidth="1"/>
-    <col min="62" max="63" width="8.42578125" style="8" customWidth="1"/>
-    <col min="64" max="64" width="6" style="8" customWidth="1"/>
-    <col min="65" max="65" width="18" style="8" customWidth="1"/>
-    <col min="66" max="66" width="9.5703125" style="8" customWidth="1"/>
-    <col min="67" max="67" width="12" style="8" customWidth="1"/>
-    <col min="68" max="68" width="10.85546875" style="8" customWidth="1"/>
-    <col min="69" max="69" width="16.85546875" style="8" customWidth="1"/>
-    <col min="70" max="72" width="15.5703125" style="8" customWidth="1"/>
-    <col min="73" max="73" width="14.42578125" style="8" customWidth="1"/>
-    <col min="74" max="74" width="22.85546875" style="8" customWidth="1"/>
-    <col min="75" max="75" width="2.42578125" style="8" customWidth="1"/>
-    <col min="76" max="76" width="15.5703125" style="8" customWidth="1"/>
-    <col min="77" max="77" width="10.85546875" style="8" customWidth="1"/>
-    <col min="78" max="78" width="24" style="8" customWidth="1"/>
-    <col min="79" max="79" width="10.85546875" style="8" customWidth="1"/>
-    <col min="80" max="80" width="9.5703125" style="8" customWidth="1"/>
-    <col min="81" max="81" width="18" style="8" customWidth="1"/>
-    <col min="82" max="82" width="15.5703125" style="8" customWidth="1"/>
-    <col min="83" max="83" width="9.5703125" style="8" customWidth="1"/>
-    <col min="84" max="84" width="22.85546875" style="8" customWidth="1"/>
-    <col min="85" max="85" width="19.140625" style="8" customWidth="1"/>
-    <col min="86" max="86" width="10.85546875" style="8" customWidth="1"/>
-    <col min="87" max="88" width="16.85546875" style="8" customWidth="1"/>
-    <col min="89" max="89" width="18" style="8" customWidth="1"/>
-    <col min="90" max="90" width="22.85546875" style="8" customWidth="1"/>
-    <col min="91" max="91" width="9.5703125" style="8" customWidth="1"/>
-    <col min="92" max="92" width="7.140625" style="8" customWidth="1"/>
-    <col min="93" max="93" width="21.5703125" style="8" customWidth="1"/>
-    <col min="94" max="94" width="19.140625" style="8" customWidth="1"/>
-    <col min="95" max="96" width="8.42578125" style="8" customWidth="1"/>
-    <col min="97" max="97" width="4.85546875" style="8" customWidth="1"/>
-    <col min="98" max="98" width="9.5703125" style="8" customWidth="1"/>
-    <col min="99" max="99" width="10.85546875" style="8" customWidth="1"/>
-    <col min="100" max="100" width="14.42578125" style="8" customWidth="1"/>
-    <col min="101" max="101" width="15.5703125" style="8" customWidth="1"/>
-    <col min="102" max="102" width="10.85546875" style="8" customWidth="1"/>
-    <col min="103" max="103" width="15.5703125" style="8" customWidth="1"/>
-    <col min="104" max="105" width="13" style="8" customWidth="1"/>
-    <col min="106" max="16384" width="14.42578125" style="7"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="16" customWidth="1"/>
+    <col min="7" max="8" width="19.140625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="6" style="16" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="16" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="16" customWidth="1"/>
+    <col min="19" max="20" width="8.42578125" style="16" customWidth="1"/>
+    <col min="21" max="21" width="12" style="16" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" style="16" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" style="16" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="16" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" style="16" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" style="16" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="16" customWidth="1"/>
+    <col min="28" max="28" width="22.85546875" style="16" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" style="16" customWidth="1"/>
+    <col min="30" max="31" width="8.42578125" style="16" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" style="16" customWidth="1"/>
+    <col min="33" max="33" width="22.85546875" style="16" customWidth="1"/>
+    <col min="34" max="34" width="9.5703125" style="16" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" style="16" customWidth="1"/>
+    <col min="36" max="36" width="16.85546875" style="16" customWidth="1"/>
+    <col min="37" max="37" width="20.42578125" style="16" customWidth="1"/>
+    <col min="38" max="38" width="15.5703125" style="16" customWidth="1"/>
+    <col min="39" max="39" width="18" style="16" customWidth="1"/>
+    <col min="40" max="40" width="15.5703125" style="16" customWidth="1"/>
+    <col min="41" max="41" width="16.85546875" style="16" customWidth="1"/>
+    <col min="42" max="42" width="13.140625" style="16" customWidth="1"/>
+    <col min="43" max="44" width="16.85546875" style="16" customWidth="1"/>
+    <col min="45" max="45" width="22.85546875" style="16" customWidth="1"/>
+    <col min="46" max="46" width="18" style="16" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" style="16" customWidth="1"/>
+    <col min="48" max="48" width="4.85546875" style="16" customWidth="1"/>
+    <col min="49" max="49" width="12" style="16" customWidth="1"/>
+    <col min="50" max="50" width="19.140625" style="16" customWidth="1"/>
+    <col min="51" max="51" width="10.85546875" style="16" customWidth="1"/>
+    <col min="52" max="52" width="16.85546875" style="16" customWidth="1"/>
+    <col min="53" max="53" width="22.85546875" style="16" customWidth="1"/>
+    <col min="54" max="54" width="8.42578125" style="16" customWidth="1"/>
+    <col min="55" max="55" width="12" style="16" customWidth="1"/>
+    <col min="56" max="56" width="10.85546875" style="16" customWidth="1"/>
+    <col min="57" max="58" width="8.42578125" style="16" customWidth="1"/>
+    <col min="59" max="59" width="6" style="16" customWidth="1"/>
+    <col min="60" max="60" width="18" style="16" customWidth="1"/>
+    <col min="61" max="61" width="9.5703125" style="16" customWidth="1"/>
+    <col min="62" max="62" width="12" style="16" customWidth="1"/>
+    <col min="63" max="63" width="10.85546875" style="16" customWidth="1"/>
+    <col min="64" max="64" width="16.85546875" style="16" customWidth="1"/>
+    <col min="65" max="67" width="15.5703125" style="16" customWidth="1"/>
+    <col min="68" max="68" width="14.42578125" style="16" customWidth="1"/>
+    <col min="69" max="69" width="22.85546875" style="16" customWidth="1"/>
+    <col min="70" max="70" width="2.42578125" style="16" customWidth="1"/>
+    <col min="71" max="71" width="15.5703125" style="16" customWidth="1"/>
+    <col min="72" max="72" width="10.85546875" style="16" customWidth="1"/>
+    <col min="73" max="73" width="24" style="16" customWidth="1"/>
+    <col min="74" max="74" width="10.85546875" style="16" customWidth="1"/>
+    <col min="75" max="75" width="9.5703125" style="16" customWidth="1"/>
+    <col min="76" max="76" width="18" style="16" customWidth="1"/>
+    <col min="77" max="77" width="15.5703125" style="16" customWidth="1"/>
+    <col min="78" max="78" width="9.5703125" style="16" customWidth="1"/>
+    <col min="79" max="79" width="22.85546875" style="16" customWidth="1"/>
+    <col min="80" max="80" width="19.140625" style="16" customWidth="1"/>
+    <col min="81" max="81" width="10.85546875" style="16" customWidth="1"/>
+    <col min="82" max="83" width="16.85546875" style="16" customWidth="1"/>
+    <col min="84" max="84" width="18" style="16" customWidth="1"/>
+    <col min="85" max="85" width="22.85546875" style="16" customWidth="1"/>
+    <col min="86" max="86" width="9.5703125" style="16" customWidth="1"/>
+    <col min="87" max="87" width="7.140625" style="16" customWidth="1"/>
+    <col min="88" max="88" width="21.5703125" style="16" customWidth="1"/>
+    <col min="89" max="89" width="19.140625" style="16" customWidth="1"/>
+    <col min="90" max="91" width="8.42578125" style="16" customWidth="1"/>
+    <col min="92" max="92" width="4.85546875" style="16" customWidth="1"/>
+    <col min="93" max="93" width="9.5703125" style="16" customWidth="1"/>
+    <col min="94" max="94" width="10.85546875" style="16" customWidth="1"/>
+    <col min="95" max="95" width="14.42578125" style="16" customWidth="1"/>
+    <col min="96" max="96" width="15.5703125" style="16" customWidth="1"/>
+    <col min="97" max="97" width="10.85546875" style="16" customWidth="1"/>
+    <col min="98" max="98" width="15.5703125" style="16" customWidth="1"/>
+    <col min="99" max="101" width="13" style="16" customWidth="1"/>
+    <col min="102" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105">
-      <c r="A1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:101">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:101">
+      <c r="A2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="10" t="s">
+    </row>
+    <row r="3" spans="1:101">
+      <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:101">
+      <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:101">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:101">
+      <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="10" t="s">
+    </row>
+    <row r="7" spans="1:101">
+      <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="10" t="s">
+    </row>
+    <row r="8" spans="1:101">
+      <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="10" t="s">
+    </row>
+    <row r="9" spans="1:101">
+      <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="10" t="s">
+    </row>
+    <row r="10" spans="1:101">
+      <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="10" t="s">
+    </row>
+    <row r="11" spans="1:101">
+      <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="10" t="s">
+    </row>
+    <row r="12" spans="1:101">
+      <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="10" t="s">
+    </row>
+    <row r="14" spans="1:101">
+      <c r="A14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="B14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="C14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="E14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="G14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="H14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="U14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="W14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO14" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP14" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ14" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX14" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC14" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ14" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK14" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN14" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO14" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR14" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS14" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT14" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="BV14" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW14" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="BX14" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY14" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="BZ14" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="CA14" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CB14" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC14" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD14" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE14" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="CF14" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG14" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="CH14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI14" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ14" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK14" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="CL14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="CN14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="CP14" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="CQ14" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR14" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="CS14" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="CT14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="CU14" s="20"/>
+      <c r="CV14" s="20"/>
+      <c r="CW14" s="20"/>
+    </row>
+    <row r="15" spans="1:101" ht="16">
+      <c r="A15" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="B15" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="AA1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="BG1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="BQ1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BU1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="BV1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="BY1" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="BZ1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="CA1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="CB1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="CD1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="CE1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="CF1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="CG1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CI1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="CJ1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CK1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="CL1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="CM1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="CN1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="CO1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="CP1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CQ1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="CR1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="CT1" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="CU1" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="CV1" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="CW1" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="CX1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="CY1" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-    </row>
-    <row r="2" spans="1:105">
-      <c r="A2" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="N15" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="O15" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="P15" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q15" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="R2" s="8" t="s">
+      <c r="R15" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S15" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="T15" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>162</v>
-      </c>
+      <c r="U15" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1789,167 +3444,167 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
